--- a/Texts/Глоссарий/Названия Предметов.xlsx
+++ b/Texts/Глоссарий/Названия Предметов.xlsx
@@ -12341,8 +12341,8 @@
   </sheetPr>
   <dimension ref="A1:F1401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C91" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
